--- a/Win32/Debug/Модель/темпы роста сравнение.xlsx
+++ b/Win32/Debug/Модель/темпы роста сравнение.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Diplon-Delphi\Win32\Debug\Модель\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C020890-499F-4EA0-897E-2611D48BA411}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A355B24-6130-46FA-999D-8575382E1CD3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14355" yWindow="450" windowWidth="13380" windowHeight="5340" tabRatio="569" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Win32/Debug/Модель/темпы роста сравнение.xlsx
+++ b/Win32/Debug/Модель/темпы роста сравнение.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Diplon-Delphi\Win32\Debug\Модель\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A355B24-6130-46FA-999D-8575382E1CD3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3525E297-5AE8-451B-9E60-42BA69718192}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14355" yWindow="450" windowWidth="13380" windowHeight="5340" tabRatio="569" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37541,7 +37541,7 @@
         <v>128</v>
       </c>
       <c r="D4" s="44">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F4" s="108" t="s">
         <v>127</v>

--- a/Win32/Debug/Модель/темпы роста сравнение.xlsx
+++ b/Win32/Debug/Модель/темпы роста сравнение.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Diplon-Delphi\Win32\Debug\Модель\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3525E297-5AE8-451B-9E60-42BA69718192}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AC7655-D606-461A-9EBD-0DBFD01A6EFE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14355" yWindow="450" windowWidth="13380" windowHeight="5340" tabRatio="569" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37541,7 +37541,7 @@
         <v>128</v>
       </c>
       <c r="D4" s="44">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F4" s="108" t="s">
         <v>127</v>
@@ -37561,7 +37561,7 @@
         <v>132</v>
       </c>
       <c r="D5" s="44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="108" t="s">
         <v>127</v>

--- a/Win32/Debug/Модель/темпы роста сравнение.xlsx
+++ b/Win32/Debug/Модель/темпы роста сравнение.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Diplon-Delphi\Win32\Debug\Модель\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AC7655-D606-461A-9EBD-0DBFD01A6EFE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683A96D3-06E4-4F92-9D03-7B3FF2F50FDF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14355" yWindow="450" windowWidth="13380" windowHeight="5340" tabRatio="569" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37561,7 +37561,7 @@
         <v>132</v>
       </c>
       <c r="D5" s="44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" s="108" t="s">
         <v>127</v>

--- a/Win32/Debug/Модель/темпы роста сравнение.xlsx
+++ b/Win32/Debug/Модель/темпы роста сравнение.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Diplon-Delphi\Win32\Debug\Модель\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683A96D3-06E4-4F92-9D03-7B3FF2F50FDF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55083888-FE06-46B2-A493-BEA80861C80F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14355" yWindow="450" windowWidth="13380" windowHeight="5340" tabRatio="569" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
